--- a/data/trans_orig/Q02G_LAB-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_LAB-Dificultad-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.565599332104131</v>
+        <v>2.667505411234377</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.258878414761447</v>
+        <v>3.155324587438082</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.482936597985245</v>
+        <v>3.418471584270154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.257745466737997</v>
+        <v>3.279539699233075</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.437488277198453</v>
+        <v>3.467717766429123</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.45424749127724</v>
+        <v>3.413564382901104</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.950170450188917</v>
+        <v>4.908035641873221</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.02622704072767</v>
+        <v>9.358093260557263</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.427219469122718</v>
+        <v>5.27698009695852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.252246146195382</v>
+        <v>5.025586549525139</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.983985100242118</v>
+        <v>5.014604587533108</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.404061396967515</v>
+        <v>5.284614021293436</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.976007958269301</v>
+        <v>2.936471676014135</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.420365912768036</v>
+        <v>2.362241407073943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.460288035455724</v>
+        <v>2.430713284780873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.199767676927807</v>
+        <v>3.138509239716069</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.764270209883549</v>
+        <v>2.820798350623154</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.244627190061473</v>
+        <v>3.201613422442676</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.401204902708556</v>
+        <v>6.06388006892266</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.359132275429565</v>
+        <v>6.054808471400213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.463651303205096</v>
+        <v>4.575056058875449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.628030096410812</v>
+        <v>5.520694736646616</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.537145811468465</v>
+        <v>4.600351959468275</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.252610936372936</v>
+        <v>5.19938112192596</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.247413749605984</v>
+        <v>2.151490001811899</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.615141183339754</v>
+        <v>1.536575963756269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.977593250409639</v>
+        <v>3.053442906252816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.032649915124356</v>
+        <v>2.99724065695121</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.093355094159397</v>
+        <v>3.053581502155777</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.784992057252763</v>
+        <v>2.744736373594553</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.570499299908064</v>
+        <v>6.759222218306146</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.079337947432584</v>
+        <v>3.917905166134167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.34816528808595</v>
+        <v>5.545972605075113</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.4936573217993</v>
+        <v>7.639611766568903</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.230098362126734</v>
+        <v>5.116960535584906</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.085938339691014</v>
+        <v>6.006103915858269</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.932199821131584</v>
+        <v>2.031573993371491</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.404330628792753</v>
+        <v>1.405357241915931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.34330943193893</v>
+        <v>3.459439637128039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.471670305357714</v>
+        <v>2.459163554416531</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.246664105795737</v>
+        <v>3.132825388762466</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.254209932701578</v>
+        <v>2.208919779931459</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.845792957721255</v>
+        <v>6.698037656528591</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.571724438985222</v>
+        <v>2.670982874149165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.872270998786366</v>
+        <v>5.919015668317382</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.869479136819518</v>
+        <v>5.185989341542146</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.41886144163127</v>
+        <v>5.472054293273864</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.089799119590411</v>
+        <v>4.064575311233811</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.011062361102521</v>
+        <v>2.994944339189508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.750538716057882</v>
+        <v>2.785341727256273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.51945519972507</v>
+        <v>3.456004052537568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.491628401698753</v>
+        <v>3.448042303809486</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.502046465612807</v>
+        <v>3.494174684769595</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.477089444420072</v>
+        <v>3.397440090691974</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.745349766592464</v>
+        <v>4.725761270661322</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.888284572871938</v>
+        <v>4.93509240934154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.600665048500767</v>
+        <v>4.589877368671024</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.84941893548565</v>
+        <v>4.772696855173283</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.45654399168921</v>
+        <v>4.452934122182998</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.55340192554698</v>
+        <v>4.520101855823212</v>
       </c>
     </row>
     <row r="19">
